--- a/Hardware/BOM/leitorcartao.xlsx
+++ b/Hardware/BOM/leitorcartao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="383">
   <si>
     <t>Part</t>
   </si>
@@ -1157,6 +1157,12 @@
   </si>
   <si>
     <t>FSK_PN</t>
+  </si>
+  <si>
+    <t>FSK</t>
+  </si>
+  <si>
+    <t>PSK</t>
   </si>
 </sst>
 </file>
@@ -1974,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:O162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1991,7 +1997,7 @@
     <col min="9" max="9" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2025,8 +2031,20 @@
       <c r="K1" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2051,7 +2069,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2078,7 +2096,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2103,7 +2121,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,7 +2148,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2157,7 +2175,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2184,7 +2202,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -2211,7 +2229,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2238,7 +2256,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -2265,7 +2283,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2292,7 +2310,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2319,7 +2337,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2346,7 +2364,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2373,7 +2391,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2400,7 +2418,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>

--- a/Hardware/BOM/leitorcartao.xlsx
+++ b/Hardware/BOM/leitorcartao.xlsx
@@ -10,14 +10,14 @@
     <sheet name="leitorcartao" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leitorcartao!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leitorcartao!$A$1:$O$167</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="388">
   <si>
     <t>Part</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>EMK107ABJ475KA-T</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>C/10u/25V/A08</t>
   </si>
   <si>
-    <t>CC0805ZKY5V6BB106</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>C/220n/200V/C12</t>
   </si>
   <si>
-    <t>C3216X7R2A224K115AA</t>
-  </si>
-  <si>
     <t>C19</t>
   </si>
   <si>
@@ -370,9 +361,6 @@
     <t>C46</t>
   </si>
   <si>
-    <t>C/18p/50V/D04</t>
-  </si>
-  <si>
     <t>CL05C180JB5NNNC</t>
   </si>
   <si>
@@ -418,9 +406,6 @@
     <t>C/120p/50V/E06</t>
   </si>
   <si>
-    <t>CL05C121JB5NNNC</t>
-  </si>
-  <si>
     <t>C55</t>
   </si>
   <si>
@@ -529,9 +514,6 @@
     <t>Schottky Diodes</t>
   </si>
   <si>
-    <t>D/BAT54S</t>
-  </si>
-  <si>
     <t>BAT54S,215</t>
   </si>
   <si>
@@ -610,9 +592,6 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>L/1u/06/0.5A</t>
-  </si>
-  <si>
     <t>L4</t>
   </si>
   <si>
@@ -739,9 +718,6 @@
     <t>R/470/5%/04</t>
   </si>
   <si>
-    <t>RC0402JR-07470RL</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -979,9 +955,6 @@
     <t>R38</t>
   </si>
   <si>
-    <t>R/100/5%/04</t>
-  </si>
-  <si>
     <t>RC1005J101CS</t>
   </si>
   <si>
@@ -1042,9 +1015,6 @@
     <t>R/100/5%/06</t>
   </si>
   <si>
-    <t>MCR01MRTF1000</t>
-  </si>
-  <si>
     <t>R53</t>
   </si>
   <si>
@@ -1178,6 +1148,39 @@
   </si>
   <si>
     <t>X2</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>GRM188R61E106MA73D</t>
+  </si>
+  <si>
+    <t>C3216X7T2E224K160AA</t>
+  </si>
+  <si>
+    <t>C/0.1u/16V/A06</t>
+  </si>
+  <si>
+    <t>C/220n/200V/C04</t>
+  </si>
+  <si>
+    <t>C/18p/50V/D06</t>
+  </si>
+  <si>
+    <t>L/1u/0.5A/06</t>
+  </si>
+  <si>
+    <t>D/BAT54S/SOT23</t>
+  </si>
+  <si>
+    <t>R/100K/5%/04</t>
+  </si>
+  <si>
+    <t>4-1622826-4</t>
+  </si>
+  <si>
+    <t>06035U121FAT2A</t>
   </si>
 </sst>
 </file>
@@ -1995,10 +1998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2064,7 +2068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2103,7 +2107,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>18</v>
@@ -2144,25 +2148,25 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -2175,7 +2179,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>18</v>
@@ -2183,18 +2187,18 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -2203,7 +2207,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -2216,7 +2220,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>18</v>
@@ -2224,9 +2228,9 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -2257,7 +2261,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>18</v>
@@ -2265,18 +2269,18 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -2285,7 +2289,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -2298,7 +2302,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>18</v>
@@ -2306,18 +2310,18 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -2326,7 +2330,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -2339,7 +2343,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>18</v>
@@ -2347,18 +2351,18 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -2367,7 +2371,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>18</v>
@@ -2380,7 +2384,7 @@
         <v>27</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>18</v>
@@ -2388,18 +2392,18 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
@@ -2408,7 +2412,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
@@ -2421,7 +2425,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>18</v>
@@ -2429,18 +2433,18 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -2449,7 +2453,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>18</v>
@@ -2462,7 +2466,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>18</v>
@@ -2470,18 +2474,18 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
@@ -2490,7 +2494,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>18</v>
@@ -2503,7 +2507,7 @@
         <v>27</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>18</v>
@@ -2511,18 +2515,18 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -2531,7 +2535,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>18</v>
@@ -2544,7 +2548,7 @@
         <v>27</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>18</v>
@@ -2552,18 +2556,18 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
@@ -2572,7 +2576,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>18</v>
@@ -2585,7 +2589,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>18</v>
@@ -2593,12 +2597,12 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -2613,7 +2617,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>380</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
@@ -2626,7 +2630,7 @@
         <v>27</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>18</v>
@@ -2634,18 +2638,18 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
@@ -2654,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>18</v>
@@ -2667,7 +2671,7 @@
         <v>27</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>18</v>
@@ -2675,12 +2679,12 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -2695,7 +2699,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>380</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>18</v>
@@ -2708,7 +2712,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>18</v>
@@ -2716,18 +2720,18 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
@@ -2736,7 +2740,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>18</v>
@@ -2749,7 +2753,7 @@
         <v>27</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>18</v>
@@ -2757,18 +2761,18 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>25</v>
@@ -2777,7 +2781,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>18</v>
@@ -2790,7 +2794,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>18</v>
@@ -2798,18 +2802,18 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
@@ -2818,7 +2822,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>381</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2827,24 +2831,24 @@
         <v>27</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>64</v>
+        <v>379</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
@@ -2853,7 +2857,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2862,24 +2866,24 @@
         <v>27</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
@@ -2888,7 +2892,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2897,24 +2901,24 @@
         <v>27</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
@@ -2923,7 +2927,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>18</v>
@@ -2940,18 +2944,18 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>25</v>
@@ -2960,7 +2964,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>18</v>
@@ -2971,7 +2975,7 @@
         <v>27</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>18</v>
@@ -2979,18 +2983,18 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>25</v>
@@ -2999,7 +3003,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3008,24 +3012,24 @@
         <v>27</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
@@ -3034,7 +3038,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3043,24 +3047,24 @@
         <v>27</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
@@ -3069,7 +3073,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>18</v>
@@ -3080,7 +3084,7 @@
         <v>27</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>18</v>
@@ -3088,18 +3092,18 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>25</v>
@@ -3108,7 +3112,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>63</v>
+        <v>381</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3117,24 +3121,24 @@
         <v>27</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>64</v>
+        <v>379</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>25</v>
@@ -3143,7 +3147,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>18</v>
@@ -3154,7 +3158,7 @@
         <v>27</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>64</v>
+        <v>379</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>18</v>
@@ -3162,18 +3166,18 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>25</v>
@@ -3182,7 +3186,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>18</v>
@@ -3193,7 +3197,7 @@
         <v>27</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>18</v>
@@ -3201,18 +3205,18 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
@@ -3234,18 +3238,18 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>25</v>
@@ -3254,7 +3258,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>18</v>
@@ -3265,7 +3269,7 @@
         <v>27</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>18</v>
@@ -3273,18 +3277,18 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>25</v>
@@ -3306,18 +3310,18 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>25</v>
@@ -3339,18 +3343,18 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>25</v>
@@ -3359,7 +3363,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>18</v>
@@ -3370,7 +3374,7 @@
         <v>27</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>18</v>
@@ -3378,18 +3382,18 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>25</v>
@@ -3398,7 +3402,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>18</v>
@@ -3409,7 +3413,7 @@
         <v>27</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>18</v>
@@ -3417,18 +3421,18 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>25</v>
@@ -3450,25 +3454,25 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>18</v>
@@ -3479,7 +3483,7 @@
         <v>27</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>18</v>
@@ -3487,25 +3491,25 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>18</v>
@@ -3516,7 +3520,7 @@
         <v>27</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>18</v>
@@ -3524,18 +3528,18 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>25</v>
@@ -3557,18 +3561,18 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>25</v>
@@ -3590,25 +3594,25 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>18</v>
@@ -3619,7 +3623,7 @@
         <v>27</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>18</v>
@@ -3627,25 +3631,25 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>18</v>
@@ -3656,7 +3660,7 @@
         <v>27</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>18</v>
@@ -3664,18 +3668,18 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>25</v>
@@ -3684,7 +3688,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>18</v>
@@ -3695,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>18</v>
@@ -3703,18 +3707,18 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>25</v>
@@ -3736,18 +3740,18 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>25</v>
@@ -3769,18 +3773,18 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>25</v>
@@ -3802,12 +3806,12 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>23</v>
@@ -3820,7 +3824,7 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3831,18 +3835,18 @@
         <v>27</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>23</v>
@@ -3855,7 +3859,7 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3866,31 +3870,31 @@
         <v>27</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3901,31 +3905,31 @@
         <v>27</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3936,31 +3940,31 @@
         <v>27</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3971,31 +3975,31 @@
         <v>27</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4010,25 +4014,25 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4039,31 +4043,31 @@
         <v>27</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4074,18 +4078,18 @@
         <v>27</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>23</v>
@@ -4098,7 +4102,7 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4109,18 +4113,18 @@
         <v>27</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>23</v>
@@ -4133,7 +4137,7 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4144,18 +4148,18 @@
         <v>27</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>23</v>
@@ -4168,7 +4172,7 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4179,18 +4183,18 @@
         <v>27</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>23</v>
@@ -4203,7 +4207,7 @@
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4214,31 +4218,31 @@
         <v>27</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4249,18 +4253,18 @@
         <v>27</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
@@ -4273,7 +4277,7 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4284,18 +4288,18 @@
         <v>27</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
@@ -4308,7 +4312,7 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4319,31 +4323,31 @@
         <v>27</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4354,31 +4358,31 @@
         <v>27</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4387,24 +4391,24 @@
         <v>27</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>25</v>
@@ -4413,7 +4417,7 @@
         <v>18</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>18</v>
@@ -4426,7 +4430,7 @@
         <v>27</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>18</v>
@@ -4434,18 +4438,18 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>25</v>
@@ -4454,7 +4458,7 @@
         <v>18</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>18</v>
@@ -4467,7 +4471,7 @@
         <v>27</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>18</v>
@@ -4475,23 +4479,23 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4502,23 +4506,23 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4529,25 +4533,25 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>18</v>
@@ -4560,7 +4564,7 @@
         <v>27</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>18</v>
@@ -4568,23 +4572,23 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4595,25 +4599,25 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>18</v>
@@ -4626,7 +4630,7 @@
         <v>27</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>18</v>
@@ -4634,25 +4638,25 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>18</v>
@@ -4663,7 +4667,7 @@
         <v>27</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>18</v>
@@ -4671,27 +4675,27 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>170</v>
+        <v>384</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>18</v>
@@ -4702,7 +4706,7 @@
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>18</v>
@@ -4710,27 +4714,27 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>170</v>
+        <v>384</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>18</v>
@@ -4741,7 +4745,7 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>18</v>
@@ -4749,21 +4753,21 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -4776,21 +4780,21 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -4803,23 +4807,23 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4830,27 +4834,27 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>18</v>
@@ -4859,7 +4863,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>18</v>
@@ -4867,25 +4871,25 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>18</v>
@@ -4894,7 +4898,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>18</v>
@@ -4902,25 +4906,25 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4935,25 +4939,25 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4968,25 +4972,25 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>197</v>
+        <v>383</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5001,25 +5005,25 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>197</v>
+        <v>383</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5034,23 +5038,23 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5061,25 +5065,25 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>18</v>
@@ -5090,7 +5094,7 @@
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>18</v>
@@ -5098,23 +5102,23 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5125,25 +5129,25 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>18</v>
@@ -5152,7 +5156,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>18</v>
@@ -5160,25 +5164,25 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>18</v>
@@ -5187,7 +5191,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>18</v>
@@ -5195,25 +5199,25 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>18</v>
@@ -5222,7 +5226,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>18</v>
@@ -5230,54 +5234,54 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>18</v>
@@ -5288,7 +5292,7 @@
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>18</v>
@@ -5296,25 +5300,25 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>18</v>
@@ -5325,7 +5329,7 @@
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>18</v>
@@ -5333,25 +5337,25 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>18</v>
@@ -5362,7 +5366,7 @@
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>18</v>
@@ -5370,27 +5374,27 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>18</v>
@@ -5401,7 +5405,7 @@
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>18</v>
@@ -5409,25 +5413,25 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5436,33 +5440,33 @@
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B96" s="1">
         <v>470</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>18</v>
@@ -5475,7 +5479,7 @@
         <v>27</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>240</v>
+        <v>386</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>18</v>
@@ -5483,27 +5487,27 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B97" s="1">
         <v>470</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>18</v>
@@ -5516,7 +5520,7 @@
         <v>27</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>240</v>
+        <v>386</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>18</v>
@@ -5526,25 +5530,25 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>18</v>
@@ -5557,7 +5561,7 @@
         <v>27</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>18</v>
@@ -5565,27 +5569,27 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>18</v>
@@ -5596,7 +5600,7 @@
         <v>27</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>18</v>
@@ -5604,27 +5608,27 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -5633,33 +5637,33 @@
         <v>27</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>18</v>
@@ -5670,7 +5674,7 @@
         <v>27</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>18</v>
@@ -5678,27 +5682,27 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -5707,33 +5711,33 @@
         <v>27</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>18</v>
@@ -5744,7 +5748,7 @@
         <v>27</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>18</v>
@@ -5752,27 +5756,27 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B104" s="1">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>18</v>
@@ -5783,7 +5787,7 @@
         <v>27</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>18</v>
@@ -5791,27 +5795,27 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B105" s="1">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>18</v>
@@ -5822,7 +5826,7 @@
         <v>27</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>18</v>
@@ -5830,27 +5834,27 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -5859,33 +5863,33 @@
         <v>27</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5894,33 +5898,33 @@
         <v>27</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -5929,33 +5933,33 @@
         <v>27</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -5964,33 +5968,33 @@
         <v>27</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>18</v>
@@ -6001,7 +6005,7 @@
         <v>27</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>18</v>
@@ -6009,27 +6013,27 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>18</v>
@@ -6040,7 +6044,7 @@
         <v>27</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>18</v>
@@ -6048,27 +6052,27 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>285</v>
+        <v>385</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>18</v>
@@ -6079,7 +6083,7 @@
         <v>27</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>18</v>
@@ -6087,27 +6091,27 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6116,33 +6120,33 @@
         <v>27</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6151,33 +6155,33 @@
         <v>27</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>18</v>
@@ -6188,7 +6192,7 @@
         <v>27</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>18</v>
@@ -6196,21 +6200,21 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -6229,27 +6233,27 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>18</v>
@@ -6260,7 +6264,7 @@
         <v>27</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>18</v>
@@ -6268,21 +6272,21 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -6301,27 +6305,27 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>18</v>
@@ -6332,7 +6336,7 @@
         <v>27</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>18</v>
@@ -6340,27 +6344,27 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>18</v>
@@ -6371,7 +6375,7 @@
         <v>27</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>18</v>
@@ -6379,25 +6383,25 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>18</v>
@@ -6408,7 +6412,7 @@
         <v>27</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>18</v>
@@ -6416,21 +6420,21 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -6449,25 +6453,25 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>18</v>
@@ -6478,7 +6482,7 @@
         <v>27</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>18</v>
@@ -6486,25 +6490,25 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B124" s="1">
         <v>470</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>18</v>
@@ -6515,7 +6519,7 @@
         <v>27</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>240</v>
+        <v>386</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>18</v>
@@ -6523,25 +6527,25 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>18</v>
@@ -6552,7 +6556,7 @@
         <v>27</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>18</v>
@@ -6560,21 +6564,21 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -6593,25 +6597,25 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>18</v>
@@ -6622,7 +6626,7 @@
         <v>27</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>18</v>
@@ -6630,27 +6634,27 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>18</v>
@@ -6661,7 +6665,7 @@
         <v>27</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>18</v>
@@ -6669,25 +6673,25 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>18</v>
@@ -6698,7 +6702,7 @@
         <v>27</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>18</v>
@@ -6706,21 +6710,21 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -6739,21 +6743,21 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -6772,25 +6776,25 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>18</v>
@@ -6801,7 +6805,7 @@
         <v>27</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>18</v>
@@ -6809,25 +6813,25 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B133" s="1">
         <v>100</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>18</v>
@@ -6838,7 +6842,7 @@
         <v>27</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>18</v>
@@ -6846,21 +6850,21 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -6879,21 +6883,21 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6912,21 +6916,21 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -6945,25 +6949,25 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -6974,31 +6978,31 @@
         <v>27</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7009,31 +7013,31 @@
         <v>27</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7044,31 +7048,31 @@
         <v>27</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7079,31 +7083,31 @@
         <v>27</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7114,31 +7118,31 @@
         <v>27</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -7149,33 +7153,33 @@
         <v>27</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>18</v>
@@ -7188,7 +7192,7 @@
         <v>27</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>18</v>
@@ -7196,27 +7200,27 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>18</v>
@@ -7229,7 +7233,7 @@
         <v>27</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>18</v>
@@ -7237,27 +7241,27 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>18</v>
@@ -7270,7 +7274,7 @@
         <v>27</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>18</v>
@@ -7278,27 +7282,27 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>18</v>
@@ -7311,7 +7315,7 @@
         <v>27</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>18</v>
@@ -7319,27 +7323,27 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B147" s="1">
         <v>100</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>18</v>
@@ -7352,7 +7356,7 @@
         <v>27</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>18</v>
@@ -7360,27 +7364,27 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B148" s="1">
         <v>130</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>18</v>
@@ -7393,7 +7397,7 @@
         <v>27</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>18</v>
@@ -7401,27 +7405,27 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B149" s="1">
         <v>120</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>18</v>
@@ -7434,7 +7438,7 @@
         <v>27</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>18</v>
@@ -7442,27 +7446,27 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>18</v>
@@ -7475,7 +7479,7 @@
         <v>27</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>18</v>
@@ -7483,27 +7487,27 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>18</v>
@@ -7516,7 +7520,7 @@
         <v>27</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>18</v>
@@ -7524,27 +7528,27 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B152" s="1">
         <v>100</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>18</v>
@@ -7557,7 +7561,7 @@
         <v>27</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>18</v>
@@ -7565,27 +7569,27 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>18</v>
@@ -7598,7 +7602,7 @@
         <v>27</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>18</v>
@@ -7606,27 +7610,27 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>18</v>
@@ -7639,7 +7643,7 @@
         <v>27</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>18</v>
@@ -7647,27 +7651,27 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>18</v>
@@ -7680,7 +7684,7 @@
         <v>27</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>18</v>
@@ -7688,27 +7692,27 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>18</v>
@@ -7721,7 +7725,7 @@
         <v>27</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>18</v>
@@ -7729,27 +7733,27 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>18</v>
@@ -7762,7 +7766,7 @@
         <v>27</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>18</v>
@@ -7770,27 +7774,27 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>18</v>
@@ -7803,7 +7807,7 @@
         <v>27</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>18</v>
@@ -7811,27 +7815,27 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B159" s="1">
         <v>100</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>18</v>
@@ -7844,7 +7848,7 @@
         <v>27</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>18</v>
@@ -7852,23 +7856,23 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -7879,25 +7883,25 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>18</v>
@@ -7908,7 +7912,7 @@
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>18</v>
@@ -7916,25 +7920,25 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>18</v>
@@ -7945,7 +7949,7 @@
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>18</v>
@@ -7953,27 +7957,27 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>18</v>
@@ -7984,7 +7988,7 @@
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>18</v>
@@ -7992,25 +7996,25 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8019,29 +8023,29 @@
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8052,25 +8056,25 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8081,25 +8085,25 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8111,7 +8115,14 @@
       <c r="O167" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:O167">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="12k"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hardware/BOM/leitorcartao.xlsx
+++ b/Hardware/BOM/leitorcartao.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="389">
   <si>
     <t>Part</t>
   </si>
@@ -295,9 +295,6 @@
     <t>C/680p/25V/C04</t>
   </si>
   <si>
-    <t>CC0402KRX7R9BB681</t>
-  </si>
-  <si>
     <t>C31</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>C/56p/100V/E06</t>
   </si>
   <si>
-    <t>CL05C560JB5NNNC</t>
-  </si>
-  <si>
     <t>C60</t>
   </si>
   <si>
@@ -727,12 +721,6 @@
     <t>12k</t>
   </si>
   <si>
-    <t>R/10K/5%/04</t>
-  </si>
-  <si>
-    <t>RC0402JR-0710KL</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -754,9 +742,6 @@
     <t>R/4.7k/5%/04</t>
   </si>
   <si>
-    <t>RC0402JR-074K7L</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
@@ -766,9 +751,6 @@
     <t>R/2.2k/5%/04</t>
   </si>
   <si>
-    <t>RC0402JR-072K2L</t>
-  </si>
-  <si>
     <t>R7</t>
   </si>
   <si>
@@ -868,9 +850,6 @@
     <t>R/27k/1%/04</t>
   </si>
   <si>
-    <t>MCR01MRTF2702</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
@@ -880,9 +859,6 @@
     <t>R/9.1k/5%/04</t>
   </si>
   <si>
-    <t>RC1608J912CS</t>
-  </si>
-  <si>
     <t>R20</t>
   </si>
   <si>
@@ -907,12 +883,6 @@
     <t>R25</t>
   </si>
   <si>
-    <t>R/12k/5%/04</t>
-  </si>
-  <si>
-    <t>RC1608J123CS</t>
-  </si>
-  <si>
     <t>R26</t>
   </si>
   <si>
@@ -991,9 +961,6 @@
     <t>R/3.3/5%/06</t>
   </si>
   <si>
-    <t>RC0402JR-073R3L</t>
-  </si>
-  <si>
     <t>R47</t>
   </si>
   <si>
@@ -1159,12 +1126,6 @@
     <t>C3216X7T2E224K160AA</t>
   </si>
   <si>
-    <t>C/0.1u/16V/A06</t>
-  </si>
-  <si>
-    <t>C/220n/200V/C04</t>
-  </si>
-  <si>
     <t>C/18p/50V/D06</t>
   </si>
   <si>
@@ -1174,13 +1135,55 @@
     <t>D/BAT54S/SOT23</t>
   </si>
   <si>
-    <t>R/100K/5%/04</t>
-  </si>
-  <si>
     <t>4-1622826-4</t>
   </si>
   <si>
     <t>06035U121FAT2A</t>
+  </si>
+  <si>
+    <t>R/12K/5%/04</t>
+  </si>
+  <si>
+    <t>1622826-8</t>
+  </si>
+  <si>
+    <t>C0402C102J1GACTU</t>
+  </si>
+  <si>
+    <t>BRC1608T1R0M</t>
+  </si>
+  <si>
+    <t>RMCF0402JT2K20</t>
+  </si>
+  <si>
+    <t>C/220n/25V/C04</t>
+  </si>
+  <si>
+    <t>C1005X5R1E224K050BC</t>
+  </si>
+  <si>
+    <t>CIH05T22NJNC</t>
+  </si>
+  <si>
+    <t>RC1005F273CS</t>
+  </si>
+  <si>
+    <t>RC1608J3R3CS</t>
+  </si>
+  <si>
+    <t>RC1608J472CS</t>
+  </si>
+  <si>
+    <t>06031U560FAT2A</t>
+  </si>
+  <si>
+    <t>CL05B681KB5NNNC</t>
+  </si>
+  <si>
+    <t>RC1005J912CS</t>
+  </si>
+  <si>
+    <t>BYG20J-E3/TR</t>
   </si>
 </sst>
 </file>
@@ -1998,11 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2068,7 +2070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2107,7 +2109,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>18</v>
@@ -2148,7 +2150,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2189,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2228,7 +2230,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>18</v>
@@ -2269,7 +2271,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>18</v>
@@ -2310,7 +2312,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -2351,7 +2353,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2392,7 +2394,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -2425,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>18</v>
@@ -2433,7 +2435,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2474,7 +2476,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2515,7 +2517,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -2556,7 +2558,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>18</v>
@@ -2597,7 +2599,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2617,7 +2619,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
@@ -2630,7 +2632,7 @@
         <v>27</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>18</v>
@@ -2638,7 +2640,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -2679,7 +2681,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>18</v>
@@ -2712,7 +2714,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>18</v>
@@ -2720,7 +2722,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -2761,7 +2763,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -2802,7 +2804,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2831,13 +2833,13 @@
         <v>27</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -2872,7 +2874,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -2907,7 +2909,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -2944,7 +2946,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -2983,7 +2985,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -3018,7 +3020,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -3053,7 +3055,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3092,7 +3094,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3121,13 +3123,13 @@
         <v>27</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>27</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>18</v>
@@ -3166,7 +3168,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -3205,7 +3207,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -3238,7 +3240,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>27</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>18</v>
@@ -3277,12 +3279,12 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>33</v>
@@ -3310,12 +3312,12 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>33</v>
@@ -3343,9 +3345,9 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>76</v>
@@ -3382,9 +3384,9 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
@@ -3421,9 +3423,9 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
@@ -3454,12 +3456,12 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>33</v>
@@ -3472,7 +3474,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>18</v>
@@ -3483,7 +3485,7 @@
         <v>27</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>18</v>
@@ -3491,12 +3493,12 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>33</v>
@@ -3509,7 +3511,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>18</v>
@@ -3520,7 +3522,7 @@
         <v>27</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>18</v>
@@ -3528,12 +3530,12 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>33</v>
@@ -3561,12 +3563,12 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
@@ -3594,12 +3596,12 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>33</v>
@@ -3612,7 +3614,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>18</v>
@@ -3623,7 +3625,7 @@
         <v>27</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>18</v>
@@ -3631,12 +3633,12 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>33</v>
@@ -3649,7 +3651,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>18</v>
@@ -3660,7 +3662,7 @@
         <v>27</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>18</v>
@@ -3668,9 +3670,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
@@ -3707,12 +3709,12 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>33</v>
@@ -3740,12 +3742,12 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>33</v>
@@ -3773,9 +3775,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>44</v>
@@ -3806,9 +3808,9 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>54</v>
@@ -3824,7 +3826,7 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3835,15 +3837,15 @@
         <v>27</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>54</v>
@@ -3859,7 +3861,7 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3870,15 +3872,15 @@
         <v>27</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>44</v>
@@ -3911,12 +3913,12 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>33</v>
@@ -3929,7 +3931,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3940,18 +3942,18 @@
         <v>27</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>33</v>
@@ -3964,7 +3966,7 @@
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3975,15 +3977,15 @@
         <v>27</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>70</v>
@@ -3999,7 +4001,7 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4009,14 +4011,16 @@
       <c r="K53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>44</v>
@@ -4049,9 +4053,9 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>44</v>
@@ -4084,12 +4088,12 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>23</v>
@@ -4102,7 +4106,7 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4113,18 +4117,18 @@
         <v>27</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>23</v>
@@ -4137,7 +4141,7 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4148,15 +4152,15 @@
         <v>27</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
@@ -4172,7 +4176,7 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4183,15 +4187,15 @@
         <v>27</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>54</v>
@@ -4207,7 +4211,7 @@
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4218,15 +4222,15 @@
         <v>27</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>44</v>
@@ -4259,12 +4263,12 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
@@ -4277,7 +4281,7 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4288,18 +4292,18 @@
         <v>27</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
@@ -4312,7 +4316,7 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4323,15 +4327,15 @@
         <v>27</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>44</v>
@@ -4364,9 +4368,9 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>44</v>
@@ -4397,9 +4401,9 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>44</v>
@@ -4438,9 +4442,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>44</v>
@@ -4479,18 +4483,18 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4506,18 +4510,18 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4533,25 +4537,25 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>18</v>
@@ -4564,7 +4568,7 @@
         <v>27</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>150</v>
+        <v>388</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>18</v>
@@ -4572,18 +4576,18 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4599,25 +4603,25 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="F71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>18</v>
@@ -4630,7 +4634,7 @@
         <v>27</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>18</v>
@@ -4638,25 +4642,25 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>18</v>
@@ -4667,7 +4671,7 @@
         <v>27</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>150</v>
+        <v>388</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>18</v>
@@ -4675,27 +4679,27 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>18</v>
@@ -4706,7 +4710,7 @@
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>18</v>
@@ -4714,27 +4718,27 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>18</v>
@@ -4745,7 +4749,7 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>18</v>
@@ -4753,21 +4757,21 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -4780,21 +4784,21 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -4807,18 +4811,18 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4834,27 +4838,27 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="F78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>18</v>
@@ -4863,7 +4867,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>18</v>
@@ -4871,25 +4875,25 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>18</v>
@@ -4898,7 +4902,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>18</v>
@@ -4906,25 +4910,25 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4934,30 +4938,32 @@
       <c r="K80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L80" s="1"/>
+      <c r="L80" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4967,30 +4973,32 @@
       <c r="K81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L81" s="1"/>
+      <c r="L81" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5000,30 +5008,32 @@
       <c r="K82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L82" s="1"/>
+      <c r="L82" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5033,23 +5043,25 @@
       <c r="K83" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L83" s="1"/>
+      <c r="L83" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -5065,25 +5077,25 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>18</v>
@@ -5094,7 +5106,7 @@
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>18</v>
@@ -5102,18 +5114,18 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -5129,25 +5141,25 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>18</v>
@@ -5156,7 +5168,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>18</v>
@@ -5164,25 +5176,25 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>18</v>
@@ -5191,7 +5203,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>18</v>
@@ -5199,25 +5211,25 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>18</v>
@@ -5226,7 +5238,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>18</v>
@@ -5234,54 +5246,54 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>18</v>
@@ -5292,7 +5304,7 @@
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>18</v>
@@ -5300,25 +5312,25 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>18</v>
@@ -5329,7 +5341,7 @@
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>18</v>
@@ -5337,25 +5349,25 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>18</v>
@@ -5366,7 +5378,7 @@
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>18</v>
@@ -5374,27 +5386,27 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="F94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>18</v>
@@ -5405,7 +5417,7 @@
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>18</v>
@@ -5413,25 +5425,25 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5440,33 +5452,33 @@
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B96" s="1">
         <v>470</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>18</v>
@@ -5479,7 +5491,7 @@
         <v>27</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>18</v>
@@ -5487,27 +5499,27 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B97" s="1">
         <v>470</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>18</v>
@@ -5520,7 +5532,7 @@
         <v>27</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>18</v>
@@ -5530,25 +5542,25 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>18</v>
@@ -5561,7 +5573,7 @@
         <v>27</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>237</v>
+        <v>375</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>18</v>
@@ -5569,27 +5581,27 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>18</v>
@@ -5600,7 +5612,7 @@
         <v>27</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>18</v>
@@ -5608,27 +5620,27 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -5637,33 +5649,33 @@
         <v>27</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>245</v>
+        <v>384</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>18</v>
@@ -5674,7 +5686,7 @@
         <v>27</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>18</v>
@@ -5682,27 +5694,27 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -5711,33 +5723,33 @@
         <v>27</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>245</v>
+        <v>384</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>18</v>
@@ -5748,7 +5760,7 @@
         <v>27</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>18</v>
@@ -5756,27 +5768,27 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B104" s="1">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>18</v>
@@ -5787,7 +5799,7 @@
         <v>27</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>18</v>
@@ -5795,27 +5807,27 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B105" s="1">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>18</v>
@@ -5826,7 +5838,7 @@
         <v>27</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>18</v>
@@ -5834,27 +5846,27 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -5863,33 +5875,33 @@
         <v>27</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5898,33 +5910,33 @@
         <v>27</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -5933,33 +5945,33 @@
         <v>27</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -5968,33 +5980,33 @@
         <v>27</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>18</v>
@@ -6005,7 +6017,7 @@
         <v>27</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>18</v>
@@ -6013,27 +6025,27 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>18</v>
@@ -6044,7 +6056,7 @@
         <v>27</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>18</v>
@@ -6052,27 +6064,27 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>385</v>
+        <v>236</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>18</v>
@@ -6083,7 +6095,7 @@
         <v>27</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>18</v>
@@ -6091,27 +6103,27 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6120,33 +6132,33 @@
         <v>27</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6155,33 +6167,33 @@
         <v>27</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>18</v>
@@ -6192,7 +6204,7 @@
         <v>27</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>18</v>
@@ -6200,21 +6212,21 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -6233,27 +6245,27 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>18</v>
@@ -6264,7 +6276,7 @@
         <v>27</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>18</v>
@@ -6272,21 +6284,21 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -6305,27 +6317,27 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>18</v>
@@ -6336,7 +6348,7 @@
         <v>27</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>18</v>
@@ -6344,27 +6356,27 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>18</v>
@@ -6375,7 +6387,7 @@
         <v>27</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>18</v>
@@ -6383,25 +6395,25 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>18</v>
@@ -6412,7 +6424,7 @@
         <v>27</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>18</v>
@@ -6420,21 +6432,21 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -6453,25 +6465,25 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>18</v>
@@ -6482,7 +6494,7 @@
         <v>27</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>18</v>
@@ -6490,25 +6502,25 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B124" s="1">
         <v>470</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>18</v>
@@ -6519,7 +6531,7 @@
         <v>27</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>18</v>
@@ -6527,25 +6539,25 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>18</v>
@@ -6556,7 +6568,7 @@
         <v>27</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>18</v>
@@ -6564,21 +6576,21 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -6597,25 +6609,25 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>18</v>
@@ -6626,7 +6638,7 @@
         <v>27</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>18</v>
@@ -6634,27 +6646,27 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>18</v>
@@ -6665,7 +6677,7 @@
         <v>27</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>18</v>
@@ -6673,25 +6685,25 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>18</v>
@@ -6702,7 +6714,7 @@
         <v>27</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>18</v>
@@ -6710,21 +6722,21 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -6743,21 +6755,21 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -6776,25 +6788,25 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>18</v>
@@ -6805,7 +6817,7 @@
         <v>27</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>18</v>
@@ -6813,25 +6825,25 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B133" s="1">
         <v>100</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>18</v>
@@ -6842,7 +6854,7 @@
         <v>27</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>18</v>
@@ -6850,21 +6862,21 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -6883,21 +6895,21 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6916,21 +6928,21 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -6949,25 +6961,25 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -6978,31 +6990,31 @@
         <v>27</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>245</v>
+        <v>384</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7013,31 +7025,31 @@
         <v>27</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>245</v>
+        <v>384</v>
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7048,31 +7060,31 @@
         <v>27</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7083,31 +7095,31 @@
         <v>27</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7118,31 +7130,31 @@
         <v>27</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>324</v>
+        <v>383</v>
       </c>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -7153,33 +7165,33 @@
         <v>27</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>324</v>
+        <v>383</v>
       </c>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>18</v>
@@ -7192,7 +7204,7 @@
         <v>27</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>18</v>
@@ -7200,27 +7212,27 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>18</v>
@@ -7233,7 +7245,7 @@
         <v>27</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>18</v>
@@ -7241,27 +7253,27 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>18</v>
@@ -7274,7 +7286,7 @@
         <v>27</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>18</v>
@@ -7282,27 +7294,27 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>18</v>
@@ -7315,7 +7327,7 @@
         <v>27</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>18</v>
@@ -7323,27 +7335,27 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B147" s="1">
         <v>100</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>18</v>
@@ -7356,7 +7368,7 @@
         <v>27</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>18</v>
@@ -7364,27 +7376,27 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B148" s="1">
         <v>130</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>18</v>
@@ -7397,7 +7409,7 @@
         <v>27</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>18</v>
@@ -7405,27 +7417,27 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B149" s="1">
         <v>120</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>18</v>
@@ -7438,7 +7450,7 @@
         <v>27</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>18</v>
@@ -7446,27 +7458,27 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>18</v>
@@ -7479,7 +7491,7 @@
         <v>27</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>18</v>
@@ -7487,27 +7499,27 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>18</v>
@@ -7520,7 +7532,7 @@
         <v>27</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>18</v>
@@ -7528,27 +7540,27 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B152" s="1">
         <v>100</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>18</v>
@@ -7561,7 +7573,7 @@
         <v>27</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>18</v>
@@ -7569,27 +7581,27 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>18</v>
@@ -7602,7 +7614,7 @@
         <v>27</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>18</v>
@@ -7610,27 +7622,27 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>18</v>
@@ -7643,7 +7655,7 @@
         <v>27</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>18</v>
@@ -7651,27 +7663,27 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>18</v>
@@ -7684,7 +7696,7 @@
         <v>27</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>18</v>
@@ -7692,27 +7704,27 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>18</v>
@@ -7725,7 +7737,7 @@
         <v>27</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>18</v>
@@ -7733,27 +7745,27 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>18</v>
@@ -7766,7 +7778,7 @@
         <v>27</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>18</v>
@@ -7774,27 +7786,27 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>18</v>
@@ -7807,7 +7819,7 @@
         <v>27</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>18</v>
@@ -7815,27 +7827,27 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B159" s="1">
         <v>100</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>18</v>
@@ -7848,7 +7860,7 @@
         <v>27</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>18</v>
@@ -7856,19 +7868,19 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1" t="s">
@@ -7883,25 +7895,25 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>18</v>
@@ -7912,7 +7924,7 @@
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>18</v>
@@ -7920,25 +7932,25 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>18</v>
@@ -7949,7 +7961,7 @@
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>18</v>
@@ -7957,27 +7969,27 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>18</v>
@@ -7988,7 +8000,7 @@
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>18</v>
@@ -7996,25 +8008,25 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8023,24 +8035,24 @@
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -8056,21 +8068,21 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1" t="s">
@@ -8085,21 +8097,21 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1" t="s">
@@ -8115,13 +8127,7 @@
       <c r="O167" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O167">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="12k"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O167"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Hardware/BOM/leitorcartao.xlsx
+++ b/Hardware/BOM/leitorcartao.xlsx
@@ -4,20 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="420" windowWidth="19950" windowHeight="8220"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="19950" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="leitorcartao" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leitorcartao!$A$1:$O$167</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="389">
   <si>
     <t>Part</t>
   </si>
@@ -103,6 +100,9 @@
     <t>Sim</t>
   </si>
   <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
@@ -148,6 +148,9 @@
     <t>C/10u/25V/A08</t>
   </si>
   <si>
+    <t>GRM188R61E106MA73D</t>
+  </si>
+  <si>
     <t>C6</t>
   </si>
   <si>
@@ -184,6 +187,12 @@
     <t>18p</t>
   </si>
   <si>
+    <t>C/18p/50V/D06</t>
+  </si>
+  <si>
+    <t>CL05C180JB5NNNC</t>
+  </si>
+  <si>
     <t>C14</t>
   </si>
   <si>
@@ -202,76 +211,85 @@
     <t>220n</t>
   </si>
   <si>
+    <t>C/220n/25V/C04</t>
+  </si>
+  <si>
+    <t>C1005X5R1E224K050BC</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>4.7n</t>
+  </si>
+  <si>
+    <t>C/4.7n/25V/D04</t>
+  </si>
+  <si>
+    <t>CL05B472KA5NNNC</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>C-USC1812</t>
+  </si>
+  <si>
+    <t>C1812</t>
+  </si>
+  <si>
+    <t>C/1n/500V/E18</t>
+  </si>
+  <si>
+    <t>C1812C102FBGACTU</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>68p</t>
+  </si>
+  <si>
+    <t>C/68p/25V/D04</t>
+  </si>
+  <si>
+    <t>CL05C680JB5NNNC</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C-USC1206</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
     <t>C/220n/200V/C12</t>
   </si>
   <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>4.7n</t>
-  </si>
-  <si>
-    <t>C/4.7n/25V/D04</t>
-  </si>
-  <si>
-    <t>CL05B472KA5NNNC</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>1n</t>
-  </si>
-  <si>
-    <t>C-USC1812</t>
-  </si>
-  <si>
-    <t>C1812</t>
-  </si>
-  <si>
-    <t>C/1n/500V/E18</t>
-  </si>
-  <si>
-    <t>C1812C102FBGACTU</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>68p</t>
-  </si>
-  <si>
-    <t>C/68p/25V/D04</t>
-  </si>
-  <si>
-    <t>CL05C680JB5NNNC</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C-USC1206</t>
-  </si>
-  <si>
-    <t>C1206</t>
+    <t>C3216X7T2E224K160AA</t>
   </si>
   <si>
     <t>C28</t>
@@ -295,6 +313,9 @@
     <t>C/680p/25V/C04</t>
   </si>
   <si>
+    <t>CL05B681KB5NNNC</t>
+  </si>
+  <si>
     <t>C31</t>
   </si>
   <si>
@@ -358,9 +379,6 @@
     <t>C46</t>
   </si>
   <si>
-    <t>CL05C180JB5NNNC</t>
-  </si>
-  <si>
     <t>C47</t>
   </si>
   <si>
@@ -388,6 +406,9 @@
     <t>C/1n/100V/D04</t>
   </si>
   <si>
+    <t>C0402C102J1GACTU</t>
+  </si>
+  <si>
     <t>C52</t>
   </si>
   <si>
@@ -403,6 +424,9 @@
     <t>C/120p/50V/E06</t>
   </si>
   <si>
+    <t>06035U121FAT2A</t>
+  </si>
+  <si>
     <t>C55</t>
   </si>
   <si>
@@ -427,6 +451,9 @@
     <t>C/56p/100V/E06</t>
   </si>
   <si>
+    <t>06031U560FAT2A</t>
+  </si>
+  <si>
     <t>C60</t>
   </si>
   <si>
@@ -472,6 +499,9 @@
     <t>D/BYG20J</t>
   </si>
   <si>
+    <t>BYG20J-E3/TR</t>
+  </si>
+  <si>
     <t>D1/DATA</t>
   </si>
   <si>
@@ -508,6 +538,9 @@
     <t>Schottky Diodes</t>
   </si>
   <si>
+    <t>D/BAT54S/SOT23</t>
+  </si>
+  <si>
     <t>BAT54S,215</t>
   </si>
   <si>
@@ -571,6 +604,9 @@
     <t>L/22n/0.2A/04</t>
   </si>
   <si>
+    <t>CIH05T22NJNC</t>
+  </si>
+  <si>
     <t>L2</t>
   </si>
   <si>
@@ -586,6 +622,12 @@
     <t>R0603</t>
   </si>
   <si>
+    <t>L/1u/0.5A/06</t>
+  </si>
+  <si>
+    <t>BRC1608T1R0M</t>
+  </si>
+  <si>
     <t>L4</t>
   </si>
   <si>
@@ -712,6 +754,9 @@
     <t>R/470/5%/04</t>
   </si>
   <si>
+    <t>4-1622826-4</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
@@ -721,6 +766,12 @@
     <t>12k</t>
   </si>
   <si>
+    <t>R/12K/5%/04</t>
+  </si>
+  <si>
+    <t>1622826-8</t>
+  </si>
+  <si>
     <t>R4</t>
   </si>
   <si>
@@ -742,6 +793,9 @@
     <t>R/4.7k/5%/04</t>
   </si>
   <si>
+    <t>RC1608J472CS</t>
+  </si>
+  <si>
     <t>R6</t>
   </si>
   <si>
@@ -751,6 +805,9 @@
     <t>R/2.2k/5%/04</t>
   </si>
   <si>
+    <t>RMCF0402JT2K20</t>
+  </si>
+  <si>
     <t>R7</t>
   </si>
   <si>
@@ -850,6 +907,9 @@
     <t>R/27k/1%/04</t>
   </si>
   <si>
+    <t>RC1005F273CS</t>
+  </si>
+  <si>
     <t>R19</t>
   </si>
   <si>
@@ -859,6 +919,9 @@
     <t>R/9.1k/5%/04</t>
   </si>
   <si>
+    <t>RC1005J912CS</t>
+  </si>
+  <si>
     <t>R20</t>
   </si>
   <si>
@@ -925,6 +988,9 @@
     <t>R38</t>
   </si>
   <si>
+    <t>R/100/5%/06</t>
+  </si>
+  <si>
     <t>RC1005J101CS</t>
   </si>
   <si>
@@ -961,6 +1027,9 @@
     <t>R/3.3/5%/06</t>
   </si>
   <si>
+    <t>RC1608J3R3CS</t>
+  </si>
+  <si>
     <t>R47</t>
   </si>
   <si>
@@ -979,9 +1048,6 @@
     <t>R52</t>
   </si>
   <si>
-    <t>R/100/5%/06</t>
-  </si>
-  <si>
     <t>R53</t>
   </si>
   <si>
@@ -1115,75 +1181,6 @@
   </si>
   <si>
     <t>X2</t>
-  </si>
-  <si>
-    <t>CL10A475KO8NNNC</t>
-  </si>
-  <si>
-    <t>GRM188R61E106MA73D</t>
-  </si>
-  <si>
-    <t>C3216X7T2E224K160AA</t>
-  </si>
-  <si>
-    <t>C/18p/50V/D06</t>
-  </si>
-  <si>
-    <t>L/1u/0.5A/06</t>
-  </si>
-  <si>
-    <t>D/BAT54S/SOT23</t>
-  </si>
-  <si>
-    <t>4-1622826-4</t>
-  </si>
-  <si>
-    <t>06035U121FAT2A</t>
-  </si>
-  <si>
-    <t>R/12K/5%/04</t>
-  </si>
-  <si>
-    <t>1622826-8</t>
-  </si>
-  <si>
-    <t>C0402C102J1GACTU</t>
-  </si>
-  <si>
-    <t>BRC1608T1R0M</t>
-  </si>
-  <si>
-    <t>RMCF0402JT2K20</t>
-  </si>
-  <si>
-    <t>C/220n/25V/C04</t>
-  </si>
-  <si>
-    <t>C1005X5R1E224K050BC</t>
-  </si>
-  <si>
-    <t>CIH05T22NJNC</t>
-  </si>
-  <si>
-    <t>RC1005F273CS</t>
-  </si>
-  <si>
-    <t>RC1608J3R3CS</t>
-  </si>
-  <si>
-    <t>RC1608J472CS</t>
-  </si>
-  <si>
-    <t>06031U560FAT2A</t>
-  </si>
-  <si>
-    <t>CL05B681KB5NNNC</t>
-  </si>
-  <si>
-    <t>RC1005J912CS</t>
-  </si>
-  <si>
-    <t>BYG20J-E3/TR</t>
   </si>
 </sst>
 </file>
@@ -2003,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="P125" sqref="P125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2012,15 +2009,15 @@
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -2142,7 +2139,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>366</v>
+        <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>18</v>
@@ -2152,23 +2149,23 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -2181,7 +2178,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>18</v>
@@ -2191,16 +2188,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -2209,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -2222,7 +2219,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>18</v>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -2263,7 +2260,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>366</v>
+        <v>28</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>18</v>
@@ -2273,16 +2270,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -2291,7 +2288,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -2304,7 +2301,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>18</v>
@@ -2314,16 +2311,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -2332,7 +2329,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -2345,7 +2342,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>18</v>
@@ -2355,16 +2352,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -2373,7 +2370,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>18</v>
@@ -2386,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>18</v>
@@ -2396,16 +2393,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
@@ -2414,7 +2411,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
@@ -2427,7 +2424,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>18</v>
@@ -2437,16 +2434,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -2455,7 +2452,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>18</v>
@@ -2468,7 +2465,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>18</v>
@@ -2478,16 +2475,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
@@ -2496,7 +2493,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>18</v>
@@ -2509,7 +2506,7 @@
         <v>27</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>18</v>
@@ -2519,16 +2516,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -2537,7 +2534,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>18</v>
@@ -2550,7 +2547,7 @@
         <v>27</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>18</v>
@@ -2560,16 +2557,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
@@ -2578,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>18</v>
@@ -2591,7 +2588,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>18</v>
@@ -2601,10 +2598,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -2619,7 +2616,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>369</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
@@ -2632,7 +2629,7 @@
         <v>27</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>18</v>
@@ -2642,16 +2639,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
@@ -2660,7 +2657,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>18</v>
@@ -2673,7 +2670,7 @@
         <v>27</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>18</v>
@@ -2683,10 +2680,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -2701,7 +2698,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>369</v>
+        <v>57</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>18</v>
@@ -2714,7 +2711,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>18</v>
@@ -2724,16 +2721,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
@@ -2742,7 +2739,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>18</v>
@@ -2755,7 +2752,7 @@
         <v>27</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>18</v>
@@ -2765,16 +2762,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>25</v>
@@ -2783,7 +2780,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>18</v>
@@ -2796,7 +2793,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>18</v>
@@ -2806,16 +2803,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
@@ -2824,7 +2821,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>379</v>
+        <v>65</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2833,7 +2830,7 @@
         <v>27</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>380</v>
+        <v>66</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2841,16 +2838,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
@@ -2859,7 +2856,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2868,7 +2865,7 @@
         <v>27</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2876,16 +2873,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
@@ -2894,7 +2891,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2903,7 +2900,7 @@
         <v>27</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2911,16 +2908,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
@@ -2929,7 +2926,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>18</v>
@@ -2948,16 +2945,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>25</v>
@@ -2966,7 +2963,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>18</v>
@@ -2977,7 +2974,7 @@
         <v>27</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>18</v>
@@ -2987,16 +2984,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>25</v>
@@ -3005,7 +3002,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3014,7 +3011,7 @@
         <v>27</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3022,16 +3019,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
@@ -3040,7 +3037,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3049,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -3057,16 +3054,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
@@ -3075,7 +3072,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>18</v>
@@ -3086,7 +3083,7 @@
         <v>27</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>18</v>
@@ -3096,16 +3093,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>25</v>
@@ -3114,7 +3111,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>379</v>
+        <v>65</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3123,7 +3120,7 @@
         <v>27</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>380</v>
+        <v>66</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -3131,16 +3128,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>25</v>
@@ -3149,7 +3146,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>18</v>
@@ -3160,7 +3157,7 @@
         <v>27</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>368</v>
+        <v>91</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>18</v>
@@ -3170,16 +3167,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>25</v>
@@ -3188,7 +3185,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>18</v>
@@ -3199,7 +3196,7 @@
         <v>27</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>18</v>
@@ -3209,16 +3206,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
@@ -3242,16 +3239,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>25</v>
@@ -3260,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>18</v>
@@ -3271,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>386</v>
+        <v>99</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>18</v>
@@ -3281,16 +3278,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>25</v>
@@ -3314,16 +3311,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>25</v>
@@ -3347,16 +3344,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>25</v>
@@ -3365,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>18</v>
@@ -3376,7 +3373,7 @@
         <v>27</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>18</v>
@@ -3386,16 +3383,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>25</v>
@@ -3404,7 +3401,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>18</v>
@@ -3415,7 +3412,7 @@
         <v>27</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>18</v>
@@ -3425,16 +3422,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>25</v>
@@ -3458,23 +3455,23 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>18</v>
@@ -3485,7 +3482,7 @@
         <v>27</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>18</v>
@@ -3495,23 +3492,23 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>18</v>
@@ -3522,7 +3519,7 @@
         <v>27</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>18</v>
@@ -3532,16 +3529,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>25</v>
@@ -3565,16 +3562,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>25</v>
@@ -3598,23 +3595,23 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>18</v>
@@ -3625,7 +3622,7 @@
         <v>27</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>18</v>
@@ -3635,23 +3632,23 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>18</v>
@@ -3662,7 +3659,7 @@
         <v>27</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>18</v>
@@ -3672,16 +3669,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>25</v>
@@ -3690,7 +3687,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>18</v>
@@ -3701,7 +3698,7 @@
         <v>27</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>18</v>
@@ -3711,16 +3708,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>25</v>
@@ -3744,16 +3741,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>25</v>
@@ -3777,16 +3774,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>25</v>
@@ -3810,10 +3807,10 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>23</v>
@@ -3826,7 +3823,7 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>369</v>
+        <v>57</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3837,7 +3834,7 @@
         <v>27</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3845,10 +3842,10 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>23</v>
@@ -3861,7 +3858,7 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>369</v>
+        <v>57</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3872,7 +3869,7 @@
         <v>27</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3880,23 +3877,23 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3907,7 +3904,7 @@
         <v>27</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3915,23 +3912,23 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3942,7 +3939,7 @@
         <v>27</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -3950,23 +3947,23 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3977,7 +3974,7 @@
         <v>27</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3985,23 +3982,23 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4012,7 +4009,7 @@
         <v>27</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>376</v>
+        <v>130</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -4020,23 +4017,23 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4047,7 +4044,7 @@
         <v>27</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -4055,23 +4052,23 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4082,7 +4079,7 @@
         <v>27</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -4090,10 +4087,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>23</v>
@@ -4106,7 +4103,7 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4117,7 +4114,7 @@
         <v>27</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>373</v>
+        <v>136</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -4125,10 +4122,10 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>23</v>
@@ -4141,7 +4138,7 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4152,7 +4149,7 @@
         <v>27</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>373</v>
+        <v>136</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -4160,10 +4157,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>23</v>
@@ -4176,7 +4173,7 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4187,7 +4184,7 @@
         <v>27</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -4195,10 +4192,10 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>23</v>
@@ -4211,7 +4208,7 @@
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4222,7 +4219,7 @@
         <v>27</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -4230,23 +4227,23 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4257,7 +4254,7 @@
         <v>27</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -4265,10 +4262,10 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
@@ -4281,7 +4278,7 @@
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4292,7 +4289,7 @@
         <v>27</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>385</v>
+        <v>145</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -4300,10 +4297,10 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
@@ -4316,7 +4313,7 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4327,7 +4324,7 @@
         <v>27</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>385</v>
+        <v>145</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -4335,23 +4332,23 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4362,7 +4359,7 @@
         <v>27</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -4370,32 +4367,34 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K64" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -4403,16 +4402,16 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>25</v>
@@ -4421,7 +4420,7 @@
         <v>18</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>18</v>
@@ -4434,7 +4433,7 @@
         <v>27</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>18</v>
@@ -4444,16 +4443,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>25</v>
@@ -4462,7 +4461,7 @@
         <v>18</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>18</v>
@@ -4475,7 +4474,7 @@
         <v>27</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>18</v>
@@ -4485,21 +4484,21 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4512,21 +4511,21 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4539,23 +4538,23 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>18</v>
@@ -4568,7 +4567,7 @@
         <v>27</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>18</v>
@@ -4578,21 +4577,21 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4605,23 +4604,23 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>18</v>
@@ -4634,7 +4633,7 @@
         <v>27</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>18</v>
@@ -4644,23 +4643,23 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>18</v>
@@ -4671,7 +4670,7 @@
         <v>27</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>18</v>
@@ -4681,25 +4680,25 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>371</v>
+        <v>174</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>18</v>
@@ -4710,7 +4709,7 @@
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>18</v>
@@ -4720,25 +4719,25 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>371</v>
+        <v>174</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>18</v>
@@ -4749,7 +4748,7 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>18</v>
@@ -4759,19 +4758,19 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -4786,19 +4785,19 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -4813,21 +4812,21 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4840,25 +4839,25 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>18</v>
@@ -4867,7 +4866,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>18</v>
@@ -4877,23 +4876,23 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>18</v>
@@ -4902,7 +4901,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>18</v>
@@ -4912,23 +4911,23 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4939,7 +4938,7 @@
         <v>27</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>381</v>
+        <v>196</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -4947,23 +4946,23 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4974,7 +4973,7 @@
         <v>27</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>381</v>
+        <v>196</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -4982,23 +4981,23 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>370</v>
+        <v>202</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5009,7 +5008,7 @@
         <v>27</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>377</v>
+        <v>203</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -5017,23 +5016,23 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>370</v>
+        <v>202</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5044,7 +5043,7 @@
         <v>27</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>377</v>
+        <v>203</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -5052,21 +5051,21 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5079,23 +5078,23 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>18</v>
@@ -5106,7 +5105,7 @@
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>18</v>
@@ -5116,21 +5115,21 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5143,23 +5142,23 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>18</v>
@@ -5168,7 +5167,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>18</v>
@@ -5178,23 +5177,23 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>18</v>
@@ -5203,7 +5202,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>18</v>
@@ -5213,23 +5212,23 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>18</v>
@@ -5238,7 +5237,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>18</v>
@@ -5248,52 +5247,60 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G90" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H90" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="J90" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="M90" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>18</v>
@@ -5304,7 +5311,7 @@
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>18</v>
@@ -5314,23 +5321,23 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>18</v>
@@ -5341,7 +5348,7 @@
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>18</v>
@@ -5351,23 +5358,23 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>18</v>
@@ -5378,7 +5385,7 @@
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>18</v>
@@ -5388,25 +5395,25 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>18</v>
@@ -5417,7 +5424,7 @@
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>18</v>
@@ -5427,23 +5434,23 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5452,7 +5459,7 @@
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -5460,25 +5467,25 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B96" s="1">
         <v>470</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>18</v>
@@ -5491,7 +5498,7 @@
         <v>27</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>18</v>
@@ -5501,25 +5508,25 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B97" s="1">
         <v>470</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>18</v>
@@ -5532,7 +5539,7 @@
         <v>27</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>18</v>
@@ -5542,25 +5549,25 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>374</v>
+        <v>250</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>18</v>
@@ -5573,7 +5580,7 @@
         <v>27</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>375</v>
+        <v>251</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>18</v>
@@ -5583,25 +5590,25 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>18</v>
@@ -5612,7 +5619,7 @@
         <v>27</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>18</v>
@@ -5622,25 +5629,25 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -5649,7 +5656,7 @@
         <v>27</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>384</v>
+        <v>259</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -5657,25 +5664,25 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>18</v>
@@ -5686,7 +5693,7 @@
         <v>27</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>18</v>
@@ -5696,25 +5703,25 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="F102" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -5723,7 +5730,7 @@
         <v>27</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>384</v>
+        <v>259</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -5731,25 +5738,25 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>18</v>
@@ -5760,7 +5767,7 @@
         <v>27</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>18</v>
@@ -5770,25 +5777,25 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B104" s="1">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>18</v>
@@ -5799,7 +5806,7 @@
         <v>27</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>18</v>
@@ -5809,25 +5816,25 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B105" s="1">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>18</v>
@@ -5838,7 +5845,7 @@
         <v>27</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>18</v>
@@ -5848,25 +5855,25 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -5875,7 +5882,7 @@
         <v>27</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -5883,25 +5890,25 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5910,7 +5917,7 @@
         <v>27</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -5918,25 +5925,25 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -5945,7 +5952,7 @@
         <v>27</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -5953,25 +5960,25 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -5980,7 +5987,7 @@
         <v>27</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
@@ -5988,25 +5995,25 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>18</v>
@@ -6017,7 +6024,7 @@
         <v>27</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>18</v>
@@ -6027,25 +6034,25 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="D111" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>18</v>
@@ -6056,7 +6063,7 @@
         <v>27</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>18</v>
@@ -6066,25 +6073,25 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>18</v>
@@ -6095,7 +6102,7 @@
         <v>27</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>18</v>
@@ -6105,25 +6112,25 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6132,7 +6139,7 @@
         <v>27</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
@@ -6140,25 +6147,25 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6167,7 +6174,7 @@
         <v>27</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
@@ -6175,25 +6182,25 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>18</v>
@@ -6204,7 +6211,7 @@
         <v>27</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>18</v>
@@ -6214,19 +6221,19 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -6247,25 +6254,25 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>18</v>
@@ -6276,7 +6283,7 @@
         <v>27</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>18</v>
@@ -6286,19 +6293,19 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -6319,25 +6326,25 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>18</v>
@@ -6348,7 +6355,7 @@
         <v>27</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>18</v>
@@ -6358,25 +6365,25 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>18</v>
@@ -6387,7 +6394,7 @@
         <v>27</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>18</v>
@@ -6397,23 +6404,23 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>18</v>
@@ -6424,7 +6431,7 @@
         <v>27</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>18</v>
@@ -6434,19 +6441,19 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -6467,23 +6474,23 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>18</v>
@@ -6494,7 +6501,7 @@
         <v>27</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>18</v>
@@ -6504,23 +6511,23 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B124" s="1">
         <v>470</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>18</v>
@@ -6531,7 +6538,7 @@
         <v>27</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>18</v>
@@ -6541,23 +6548,23 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>18</v>
@@ -6568,7 +6575,7 @@
         <v>27</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>18</v>
@@ -6578,19 +6585,19 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -6611,23 +6618,23 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>18</v>
@@ -6638,7 +6645,7 @@
         <v>27</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>18</v>
@@ -6648,25 +6655,25 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>18</v>
@@ -6677,7 +6684,7 @@
         <v>27</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>18</v>
@@ -6687,23 +6694,23 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>18</v>
@@ -6714,7 +6721,7 @@
         <v>27</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>18</v>
@@ -6724,19 +6731,19 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -6757,19 +6764,19 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -6790,23 +6797,23 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>18</v>
@@ -6817,7 +6824,7 @@
         <v>27</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>18</v>
@@ -6827,23 +6834,23 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="B133" s="1">
         <v>100</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>18</v>
@@ -6854,7 +6861,7 @@
         <v>27</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>18</v>
@@ -6864,19 +6871,19 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -6897,19 +6904,19 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6930,19 +6937,19 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -6963,23 +6970,23 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -6990,7 +6997,7 @@
         <v>27</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>384</v>
+        <v>259</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -6998,23 +7005,23 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7025,7 +7032,7 @@
         <v>27</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>384</v>
+        <v>259</v>
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
@@ -7033,23 +7040,23 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7060,7 +7067,7 @@
         <v>27</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -7068,23 +7075,23 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7095,7 +7102,7 @@
         <v>27</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -7103,23 +7110,23 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7130,7 +7137,7 @@
         <v>27</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
@@ -7138,23 +7145,23 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -7165,7 +7172,7 @@
         <v>27</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
@@ -7173,25 +7180,25 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>18</v>
@@ -7204,7 +7211,7 @@
         <v>27</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>18</v>
@@ -7214,25 +7221,25 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>18</v>
@@ -7245,7 +7252,7 @@
         <v>27</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>18</v>
@@ -7255,25 +7262,25 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>18</v>
@@ -7286,7 +7293,7 @@
         <v>27</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>18</v>
@@ -7296,25 +7303,25 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>18</v>
@@ -7327,7 +7334,7 @@
         <v>27</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>18</v>
@@ -7337,25 +7344,25 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="B147" s="1">
         <v>100</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>18</v>
@@ -7368,7 +7375,7 @@
         <v>27</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>18</v>
@@ -7378,25 +7385,25 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="B148" s="1">
         <v>130</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>18</v>
@@ -7409,7 +7416,7 @@
         <v>27</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>18</v>
@@ -7419,25 +7426,25 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="B149" s="1">
         <v>120</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>18</v>
@@ -7450,7 +7457,7 @@
         <v>27</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>18</v>
@@ -7460,25 +7467,25 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>18</v>
@@ -7491,7 +7498,7 @@
         <v>27</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>18</v>
@@ -7501,25 +7508,25 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>18</v>
@@ -7532,7 +7539,7 @@
         <v>27</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>18</v>
@@ -7542,25 +7549,25 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="B152" s="1">
         <v>100</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>18</v>
@@ -7573,7 +7580,7 @@
         <v>27</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>18</v>
@@ -7583,25 +7590,25 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>18</v>
@@ -7614,7 +7621,7 @@
         <v>27</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>18</v>
@@ -7624,25 +7631,25 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>18</v>
@@ -7655,7 +7662,7 @@
         <v>27</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>18</v>
@@ -7665,25 +7672,25 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>18</v>
@@ -7696,7 +7703,7 @@
         <v>27</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>18</v>
@@ -7706,25 +7713,25 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>18</v>
@@ -7737,7 +7744,7 @@
         <v>27</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>18</v>
@@ -7747,25 +7754,25 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>18</v>
@@ -7778,7 +7785,7 @@
         <v>27</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>18</v>
@@ -7788,25 +7795,25 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>18</v>
@@ -7819,7 +7826,7 @@
         <v>27</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>18</v>
@@ -7829,25 +7836,25 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="B159" s="1">
         <v>100</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>18</v>
@@ -7860,7 +7867,7 @@
         <v>27</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>18</v>
@@ -7870,21 +7877,21 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -7897,23 +7904,23 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>18</v>
@@ -7924,7 +7931,7 @@
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>18</v>
@@ -7934,23 +7941,23 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>18</v>
@@ -7961,7 +7968,7 @@
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>18</v>
@@ -7971,25 +7978,25 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>18</v>
@@ -8000,7 +8007,7 @@
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>18</v>
@@ -8010,23 +8017,23 @@
     </row>
     <row r="164" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8035,7 +8042,7 @@
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="1" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
@@ -8043,21 +8050,21 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8070,23 +8077,23 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8099,23 +8106,23 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8127,8 +8134,6 @@
       <c r="O167" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O167"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>